--- a/Materia_2-PowerBi/IP - EX 12 - Funcao SE II (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 12 - Funcao SE II (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B3A2268-E162-431D-88D0-1D3B61ACEC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E05134-5BFF-46F3-961A-AA385260D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>OUTRAS INFORMAÇÕES</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>VALOR VENDIDO</t>
+  </si>
+  <si>
+    <t>produto</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,6 +1079,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moeda" xfId="4" builtinId="4"/>
@@ -1614,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1793,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2017,9 @@
       <c r="M13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="60"/>
+      <c r="N13" s="60" t="s">
+        <v>37</v>
+      </c>
       <c r="O13" s="61"/>
       <c r="P13" s="62"/>
     </row>
@@ -2065,9 +2071,16 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="18">
-        <v>89</v>
-      </c>
-      <c r="K16" s="63"/>
+        <v>100</v>
+      </c>
+      <c r="K16" s="63">
+        <f>IF(NOT(ISERR(FIND(LOWER("som"),LOWER(N13)))),B18,
+IF(OR(NOT(ISERR(FIND(LOWER("média"),LOWER(N13)))),NOT(ISERR(FIND(LOWER("media"),LOWER(N13))))),D18,
+IF(NOT(ISERR(FIND(LOWER("cont"),LOWER(N13)))),F18,
+IF(NOT(ISERR(FIND(LOWER("prod"),LOWER(N13)))),H18,
+"Operação não encontrada"))))</f>
+        <v>248400000</v>
+      </c>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -2100,10 +2113,22 @@
       <c r="Q17" s="68"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="B18" s="19">
+        <f>SUM(B12:B17)</f>
+        <v>199</v>
+      </c>
+      <c r="D18" s="72">
+        <f>AVERAGE(D12:D17)</f>
+        <v>33.166666666666664</v>
+      </c>
+      <c r="F18" s="19">
+        <f>COUNTA(F12:F17)</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="19">
+        <f>PRODUCT(H12:H17)</f>
+        <v>248400000</v>
+      </c>
       <c r="K18" s="66"/>
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
@@ -2369,7 +2394,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Materia_2-PowerBi/IP - EX 12 - Funcao SE II (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 12 - Funcao SE II (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E05134-5BFF-46F3-961A-AA385260D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED22926-ABA7-4D9B-8E69-415E8160C3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>OUTRAS INFORMAÇÕES</t>
   </si>
@@ -905,7 +927,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="10">
@@ -913,8 +935,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,7 +955,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1080,11 +1102,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Moeda" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Porcentagem" xfId="5" builtinId="5"/>
     <cellStyle name="SAPBEXfilterDrill" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Vírgula 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
@@ -1625,96 +1651,96 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1739,25 +1765,25 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" spans="2:18" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1797,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K16" sqref="K16:Q19"/>
     </sheetView>
   </sheetViews>
@@ -1815,265 +1841,265 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="38" t="str">
         <f>CONTEÚDO!B2</f>
         <v>Função SE II</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
     </row>
     <row r="10" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>10</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
         <v>10</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17">
+      <c r="E12" s="15"/>
+      <c r="F12" s="16">
         <v>10</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>20</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18">
+      <c r="C13" s="15"/>
+      <c r="D13" s="17">
         <v>20</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18">
+      <c r="E13" s="15"/>
+      <c r="F13" s="17">
         <v>20</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18">
+      <c r="G13" s="15"/>
+      <c r="H13" s="17">
         <v>20</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>12</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18">
+      <c r="C14" s="15"/>
+      <c r="D14" s="17">
         <v>12</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18">
+      <c r="E14" s="15"/>
+      <c r="F14" s="17">
         <v>12</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18">
+      <c r="G14" s="15"/>
+      <c r="H14" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>45</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18">
+      <c r="C15" s="15"/>
+      <c r="D15" s="17">
         <v>45</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18">
+      <c r="E15" s="15"/>
+      <c r="F15" s="17">
         <v>45</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="18">
+      <c r="G15" s="15"/>
+      <c r="H15" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>89</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18">
+      <c r="C16" s="15"/>
+      <c r="D16" s="17">
         <v>89</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18">
+      <c r="E16" s="15"/>
+      <c r="F16" s="17">
         <v>89</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18">
+      <c r="G16" s="15"/>
+      <c r="H16" s="17">
         <v>100</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="62">
         <f>IF(NOT(ISERR(FIND(LOWER("som"),LOWER(N13)))),B18,
 IF(OR(NOT(ISERR(FIND(LOWER("média"),LOWER(N13)))),NOT(ISERR(FIND(LOWER("media"),LOWER(N13))))),D18,
 IF(NOT(ISERR(FIND(LOWER("cont"),LOWER(N13)))),F18,
@@ -2081,300 +2107,366 @@
 "Operação não encontrada"))))</f>
         <v>248400000</v>
       </c>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="65"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>23</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18">
+      <c r="C17" s="15"/>
+      <c r="D17" s="17">
         <v>23</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18">
+      <c r="E17" s="15"/>
+      <c r="F17" s="17">
         <v>23</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18">
+      <c r="G17" s="15"/>
+      <c r="H17" s="17">
         <v>23</v>
       </c>
-      <c r="K17" s="66"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="68"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="67"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>SUM(B12:B17)</f>
         <v>199</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <f>AVERAGE(D12:D17)</f>
         <v>33.166666666666664</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f>COUNTA(F12:F17)</f>
         <v>6</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <f>PRODUCT(H12:H17)</f>
         <v>248400000</v>
       </c>
-      <c r="K18" s="66"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68"/>
-    </row>
-    <row r="19" spans="2:17" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="67"/>
+    </row>
+    <row r="19" spans="2:17" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="70"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="L25">
+        <v>40000</v>
+      </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="34">
         <v>41551</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="E26" t="str">
+        <f>IF($D26&gt;=$L$25,"Bateu a meta na categoria: "&amp;$L$26,"Não bateu a meta na categoria: "&amp; $L$26)</f>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
+      <c r="J26" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="38"/>
+      <c r="K26" s="37"/>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="34">
         <v>41551</v>
       </c>
+      <c r="E27" t="str">
+        <f t="shared" ref="E27:E40" si="0">IF($D27&gt;=$L$25,"Bateu a meta na categoria: "&amp;$L$26,"Não bateu a meta na categoria: "&amp; $L$26)</f>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="34">
         <v>41551</v>
       </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="34">
         <v>32284</v>
       </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Não bateu a meta na categoria: Computador</v>
+      </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="34">
         <v>32284</v>
       </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Não bateu a meta na categoria: Computador</v>
+      </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="34">
         <v>32284</v>
       </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Não bateu a meta na categoria: Computador</v>
+      </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="34">
         <v>49508</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="34">
         <v>49508</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="34">
         <v>49508</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="34">
         <v>38000</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Não bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="34">
         <v>35019</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="34" t="s">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Não bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="34">
         <v>35019</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="34" t="s">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Não bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="34">
         <v>41334</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="34">
         <v>41334</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="34">
         <v>41334</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Bateu a meta na categoria: Computador</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
     </row>
     <row r="96" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="52"/>
-      <c r="L96" s="52"/>
-      <c r="M96" s="52"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="52"/>
-      <c r="P96" s="53"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2391,98 +2483,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="72">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6">
+        <v>3000</v>
+      </c>
+      <c r="I6" s="72">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="27" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="30">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="27" t="s">
+      <c r="E9" s="29">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="29">
-        <v>2400</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="28">
+        <v>30010</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="27" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="73" cm="1">
+        <f t="array" ref="F13">_xlfn.IFS(AND(E9&gt;H3)*AND(E11&lt;=H4),I3,E11&gt;H6,I6,E11&gt;H5,I5,E11&gt;H4,I4)</f>
+        <v>0.18</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="27" t="s">
+    <row r="14" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="74">
+        <f>E11*(1-F13)</f>
+        <v>24608.2</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Materia_2-PowerBi/IP - EX 12 - Funcao SE II (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 12 - Funcao SE II (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED22926-ABA7-4D9B-8E69-415E8160C3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C35681-96D9-4717-8F28-24D3266783D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -1823,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q96"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16:Q19"/>
     </sheetView>
   </sheetViews>
@@ -2485,7 +2485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
